--- a/data/metadata/Informe-05-050005-A-TC.xlsx
+++ b/data/metadata/Informe-05-050005-A-TC.xlsx
@@ -11,45 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>division-2-digitos-descripcion</t>
-  </si>
-  <si>
-    <t>afiliaciones-en-alta</t>
-  </si>
-  <si>
-    <t>division-2-digitos-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>División (2 dígitos) descripción</t>
+  </si>
+  <si>
+    <t>Afiliaciones en alta</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>División (2 dígitos) código</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>iaest-measure:division-2-digitos-descripcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:afiliaciones-en-alta</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:division-2-digitos-descripcion</t>
-  </si>
-  <si>
-    <t>iaest-measure:afiliaciones-en-alta</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -149,7 +152,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -160,19 +163,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -180,19 +183,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050005-A-TC.xlsx
+++ b/data/metadata/Informe-05-050005-A-TC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>División (2 dígitos) descripción</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>Mes y año</t>
+  </si>
+  <si>
+    <t>division-2-digitos-descripcion</t>
+  </si>
+  <si>
+    <t>afiliaciones-en-alta</t>
+  </si>
+  <si>
+    <t>comarca-nombre</t>
+  </si>
+  <si>
+    <t>comarca-codigo</t>
+  </si>
+  <si>
+    <t>division-2-digitos-codigo</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
   </si>
   <si>
     <t>iaest-measure:division-2-digitos-descripcion</t>
@@ -152,50 +170,70 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
